--- a/db_pembayaran4.xlsx
+++ b/db_pembayaran4.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196576E-D1F7-44A8-8D5B-8432EBF206AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686B51E-E608-46CB-9C80-4AC7AEF100AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2" xr2:uid="{6CFB223C-3D3E-483C-8268-7F690E9D09E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="737" activeTab="6" xr2:uid="{6CFB223C-3D3E-483C-8268-7F690E9D09E5}"/>
   </bookViews>
   <sheets>
     <sheet name="t00_tahunajaran" sheetId="1" r:id="rId1"/>
     <sheet name="t01_sekolah" sheetId="3" r:id="rId2"/>
     <sheet name="t02_kelas" sheetId="4" r:id="rId3"/>
+    <sheet name="t03_siswa" sheetId="5" r:id="rId4"/>
+    <sheet name="t04_rutin" sheetId="6" r:id="rId5"/>
+    <sheet name="t05_siswarutin" sheetId="7" r:id="rId6"/>
+    <sheet name="t06_siswarutinbayar" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -105,13 +109,90 @@
   </si>
   <si>
     <t>Kelas III Albert Einstein</t>
+  </si>
+  <si>
+    <t>t03_siswa</t>
+  </si>
+  <si>
+    <t>kelas_id</t>
+  </si>
+  <si>
+    <t>tahunajaran_id</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t>t04_rutin</t>
+  </si>
+  <si>
+    <t>Infaq</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Beasiswa Infaq</t>
+  </si>
+  <si>
+    <t>siswa_id</t>
+  </si>
+  <si>
+    <t>rutin_id</t>
+  </si>
+  <si>
+    <t>t05_siswarutin</t>
+  </si>
+  <si>
+    <t>nilai</t>
+  </si>
+  <si>
+    <t>t06_siswarutinbayar</t>
+  </si>
+  <si>
+    <t>nism</t>
+  </si>
+  <si>
+    <t>111235</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>bayar_tgl</t>
+  </si>
+  <si>
+    <t>bayar_jumlah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,22 +218,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,63 +562,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2018</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2019</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <f>D5&amp;" / "&amp;F5</f>
         <v>2018 / 2019</v>
       </c>
@@ -559,85 +645,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -654,70 +740,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ED85DA-940A-44CF-8AE4-6CD37C6912DF}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -728,4 +814,420 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE025E-526D-412D-AE2F-27A943270DFE}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EEEB6E-2965-4BAD-9D8C-657239FF2FE8}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85122F27-4FAD-4369-AEFE-2B84FB804FCD}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2147773-BABD-43DA-9561-A7751299092B}">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>